--- a/results/impute/diamonds.xlsx
+++ b/results/impute/diamonds.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stuli/My Drive/Research/DINI/dini/results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stuli/My Drive/Research/DINI/dini/results/impute/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A25286F-F823-9945-8B25-492A3BB62A8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5FC5F6-209A-014A-8797-11D27687390D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-40240" yWindow="-840" windowWidth="28040" windowHeight="17220" xr2:uid="{FB3A87BB-7BEB-D441-9EF8-D1413741322A}"/>
+    <workbookView xWindow="35280" yWindow="2760" windowWidth="30240" windowHeight="17240" xr2:uid="{FB3A87BB-7BEB-D441-9EF8-D1413741322A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -95,6 +95,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -139,14 +142,14 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -490,14 +493,14 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4"/>
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
       <c r="C1" t="s">
         <v>3</v>
       </c>
@@ -533,413 +536,413 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="3">
         <v>5.3438135329448397E-2</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="3">
         <v>5.8338898021486597E-2</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="3">
         <v>3.7294548258756499E-2</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="3">
         <v>5.7382179338614898E-2</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="3">
         <v>4.1138261389459203E-2</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="3">
         <v>0.32360846907450702</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="3">
         <v>5.6921980868021402E-2</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="3">
         <v>0.14469057446255401</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="3">
         <v>0.12698577772223199</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="3">
         <v>0.14073218000000001</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="4">
         <v>2.8510673807873799E-2</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
+      <c r="A3" s="1"/>
       <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="3">
         <v>0.16516492010349501</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="3">
         <v>0.150232966805558</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="4">
         <v>9.9458907143044006E-2</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="3">
         <v>0.16461337230197901</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="3">
         <v>0.14380108398556299</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="3">
         <v>0.50423570528245099</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="3">
         <v>0.174358688688632</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="3">
         <v>0.29727812305604701</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="3">
         <v>0.254191622688135</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="3">
         <v>0.27473718000000003</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3" s="3">
         <v>0.113751192943779</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="3">
         <v>3.6671321580332802E-2</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="3">
         <v>3.5179024515535402E-2</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="3">
         <v>2.93809359118519E-2</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="3">
         <v>4.8984384477825202E-2</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="3">
         <v>1.85888761013333E-2</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="3">
         <v>0.35262743083957399</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="3">
         <v>3.9547122376007701E-2</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="3">
         <v>0.108233977205697</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="3">
         <v>5.0928335060545601E-2</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="3">
         <v>0.14073211999999999</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="4">
         <v>1.3642299615346701E-2</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
+      <c r="A5" s="1"/>
       <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="3">
         <v>0.14399610981993299</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="3">
         <v>0.116209346376857</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="3">
         <v>7.8425092139411304E-2</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="3">
         <v>0.146102229376631</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="3">
         <v>0.10261487397838601</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="3">
         <v>0.52540427907460197</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="3">
         <v>0.15200695994537899</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="3">
         <v>0.244058182128427</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="3">
         <v>0.18987878470185099</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="3">
         <v>0.27473712</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="4">
         <v>6.4796809517931098E-2</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="3">
         <v>8.4330254322753706E-2</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="3">
         <v>8.5507910215216601E-2</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="3">
         <v>5.9041598299219601E-2</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="3">
         <v>0.103715982366389</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="3">
         <v>6.5587795984797997E-2</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="3">
         <v>0.40765088056233501</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="3">
         <v>9.4707125765530795E-2</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="3">
         <v>0.103034504814267</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="3">
         <v>0.12926177331483901</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="3">
         <v>0.14073218000000001</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="4">
         <v>4.4831806881463702E-2</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
+      <c r="A7" s="1"/>
       <c r="B7" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="3">
         <v>0.23442353771235799</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="3">
         <v>0.199605497526602</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="4">
         <v>0.129325630781706</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="3">
         <v>0.23523520240457299</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="3">
         <v>0.19459685389977099</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="3">
         <v>0.54284735374476101</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="3">
         <v>0.24373820677851499</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="3">
         <v>0.211380587781683</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="3">
         <v>0.28137116398369</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="3">
         <v>0.27473714999999999</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7" s="3">
         <v>0.159281757696734</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>16</v>
+      <c r="A8" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="1">
-        <v>3.0926315258640601E-2</v>
-      </c>
-      <c r="D8" s="1">
-        <v>3.3734685314616E-2</v>
-      </c>
-      <c r="E8" s="1">
-        <v>4.5256594135337398E-2</v>
-      </c>
-      <c r="F8" s="1">
-        <v>4.07899295619083E-2</v>
-      </c>
-      <c r="G8" s="1">
-        <v>3.1308071939134499E-2</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0.25464391346301901</v>
-      </c>
-      <c r="I8" s="1">
-        <v>3.5564046618910099E-2</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0.16096245335908099</v>
-      </c>
-      <c r="K8" s="1">
-        <v>8.5790482256995093E-2</v>
-      </c>
-      <c r="L8" s="1">
-        <v>0.14073232999999999</v>
-      </c>
-      <c r="M8" s="2">
-        <v>1.11809990400714E-2</v>
+      <c r="C8" s="3">
+        <v>3.9783850928378703E-2</v>
+      </c>
+      <c r="D8" s="3">
+        <v>4.0154871985463601E-2</v>
+      </c>
+      <c r="E8" s="3">
+        <v>4.0559842346608803E-2</v>
+      </c>
+      <c r="F8" s="3">
+        <v>5.1091681831809899E-2</v>
+      </c>
+      <c r="G8" s="3">
+        <v>2.99950828696877E-2</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0.32946900773160598</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0.27309654171806802</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0.14162308982001601</v>
+      </c>
+      <c r="K8" s="3">
+        <v>7.2079407286794295E-2</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0.14073211999999999</v>
+      </c>
+      <c r="M8" s="4">
+        <v>2.5149803232369601E-2</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
+      <c r="A9" s="1"/>
       <c r="B9" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="1">
-        <v>0.124059553601947</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.117259377989681</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0.131586571086694</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0.15524724176277499</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0.12236131111033501</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0.46610531543165701</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0.13723069011851699</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0.34790711520873802</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0.22399007927480299</v>
-      </c>
-      <c r="L9" s="1">
-        <v>0.27473705999999998</v>
-      </c>
-      <c r="M9" s="2">
-        <v>6.9079094593112303E-2</v>
+      <c r="C9" s="3">
+        <v>0.14697306771415</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.12670763881501601</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.103885983742996</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.15471779823609899</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.12125603590197501</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.51772067516184295</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.46332627639256801</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0.305240339017257</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0.18393013162718899</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0.27473712</v>
+      </c>
+      <c r="M9" s="4">
+        <v>0.102716556637323</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>17</v>
+      <c r="A10" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="1">
-        <v>3.9783850928378703E-2</v>
-      </c>
-      <c r="D10" s="1">
-        <v>4.0154871985463601E-2</v>
-      </c>
-      <c r="E10" s="1">
-        <v>4.0559842346608803E-2</v>
-      </c>
-      <c r="F10" s="1">
-        <v>5.1091681831809899E-2</v>
-      </c>
-      <c r="G10" s="1">
-        <v>2.99950828696877E-2</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0.32946900773160598</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0.27309654171806802</v>
-      </c>
-      <c r="J10" s="1">
-        <v>0.14162308982001601</v>
-      </c>
-      <c r="K10" s="1">
-        <v>7.2079407286794295E-2</v>
-      </c>
-      <c r="L10" s="1">
-        <v>0.14073211999999999</v>
-      </c>
-      <c r="M10" s="2">
-        <v>2.5149803232369601E-2</v>
+      <c r="C10" s="3">
+        <v>3.0926315258640601E-2</v>
+      </c>
+      <c r="D10" s="3">
+        <v>3.3734685314616E-2</v>
+      </c>
+      <c r="E10" s="3">
+        <v>4.5256594135337398E-2</v>
+      </c>
+      <c r="F10" s="3">
+        <v>4.07899295619083E-2</v>
+      </c>
+      <c r="G10" s="3">
+        <v>3.1308071939134499E-2</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0.25464391346301901</v>
+      </c>
+      <c r="I10" s="3">
+        <v>3.5564046618910099E-2</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0.16096245335908099</v>
+      </c>
+      <c r="K10" s="3">
+        <v>8.5790482256995093E-2</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0.14073232999999999</v>
+      </c>
+      <c r="M10" s="4">
+        <v>1.11809990400714E-2</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
+      <c r="A11" s="1"/>
       <c r="B11" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="1">
-        <v>0.14697306771415</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.12670763881501601</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0.103885983742996</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0.15471779823609899</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0.12125603590197501</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0.51772067516184295</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0.46332627639256801</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0.305240339017257</v>
-      </c>
-      <c r="K11" s="1">
-        <v>0.18393013162718899</v>
-      </c>
-      <c r="L11" s="1">
-        <v>0.27473712</v>
-      </c>
-      <c r="M11" s="2">
-        <v>0.102716556637323</v>
+      <c r="C11" s="3">
+        <v>0.124059553601947</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.117259377989681</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.131586571086694</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.15524724176277499</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.12236131111033501</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0.46610531543165701</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0.13723069011851699</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0.34790711520873802</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0.22399007927480299</v>
+      </c>
+      <c r="L11" s="3">
+        <v>0.27473705999999998</v>
+      </c>
+      <c r="M11" s="4">
+        <v>6.9079094593112303E-2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A8:A9"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:M2">
     <cfRule type="top10" dxfId="3" priority="4" bottom="1" rank="1"/>
